--- a/data_example.xlsx
+++ b/data_example.xlsx
@@ -1,48 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706028\Documents\Streamlit2\221220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706028\Documents\複合材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8605A5-EA7E-4381-BAF3-B070CC455EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A6D4B1-2C1B-4B20-A32D-A1B1D4F447E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7340" yWindow="0" windowWidth="6930" windowHeight="10200"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="2" r:id="rId1"/>
+    <sheet name="data_example" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Temperature</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Time</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Pressure</t>
-    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>mitame</t>
+  </si>
+  <si>
+    <t>sigma</t>
   </si>
   <si>
     <t>d_1</t>
-    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c_02</t>
+  </si>
+  <si>
+    <t>c_11</t>
+  </si>
+  <si>
+    <t>c_21</t>
+  </si>
+  <si>
+    <t>c_23</t>
+  </si>
+  <si>
+    <t>c_33</t>
+  </si>
+  <si>
+    <t>c_75</t>
+  </si>
+  <si>
+    <t>c_86</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,16 +225,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,14 +406,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -513,30 +522,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,15 +651,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1030,43 +1009,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1C4040-82EE-4243-BCB4-7CB705169E88}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>270</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>270</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>270</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>280</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>290</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>330</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>340</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_example.xlsx
+++ b/data_example.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706028\Documents\複合材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A6D4B1-2C1B-4B20-A32D-A1B1D4F447E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8BCF38-9F65-4AF6-B519-A8D8AAECEEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="0" windowWidth="6930" windowHeight="10200"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_example" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Temperature</t>
   </si>
@@ -31,40 +31,13 @@
     <t>Pressure</t>
   </si>
   <si>
-    <t>mitame</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
     <t>d_1</t>
-  </si>
-  <si>
-    <t>c_02</t>
-  </si>
-  <si>
-    <t>c_11</t>
-  </si>
-  <si>
-    <t>c_21</t>
-  </si>
-  <si>
-    <t>c_23</t>
-  </si>
-  <si>
-    <t>c_33</t>
-  </si>
-  <si>
-    <t>c_75</t>
-  </si>
-  <si>
-    <t>c_86</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1009,14 +982,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1026,16 +1001,10 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>270</v>
@@ -1046,152 +1015,6 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>270</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>270</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>280</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>280</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>290</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>330</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>340</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
